--- a/LRUCacheTestResults.xlsx
+++ b/LRUCacheTestResults.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Test Description" sheetId="1" r:id="rId1"/>
     <sheet name="Sequence #1" sheetId="4" r:id="rId2"/>
     <sheet name="Sequence #2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_1_x86" localSheetId="1">'Sequence #1'!$A$6:$C$21</definedName>
@@ -43,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>The LRUCacheTest is a project comparing performance of different implementations of cache with LRU replacement policies</t>
   </si>
   <si>
-    <t>2 test sequences of mixed put(key,value)/get(key) calls are used. Each sequence consists of a uniformly distributed integer keys and corresponding them sequence of random boolean flags with bernoulli distribution whether put or get method are to be called for the given key value. Here the sequence characteristics are described and two other sheets contain performance data using the sequences</t>
-  </si>
-  <si>
     <t>uniform(119435657,119471897)</t>
   </si>
   <si>
@@ -184,6 +182,18 @@
   </si>
   <si>
     <t>Apple LLVM-Clang 8.0.0 (800.0.42.1)</t>
+  </si>
+  <si>
+    <t>2 test sequences of mixed put(key,value)/get(key) calls are used. Each sequence consists of uniformly distributed integer keys and corresponding to them sequence of random boolean flags with bernoulli distribution whether put or get method are to be called for a given key value. Here the sequence characteristics are described and two other sheets contain performance data using the sequences</t>
+  </si>
+  <si>
+    <t>Core i7-3770 @ 3.4Ghz, Win 10 Pro</t>
+  </si>
+  <si>
+    <t>The second test sequence results summary:</t>
+  </si>
+  <si>
+    <t>Test Name, Average Running time(ms), Average Absolute Running Time Deviation(ms)</t>
   </si>
 </sst>
 </file>
@@ -228,22 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -256,6 +254,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +584,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,108 +596,108 @@
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16000000</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="B8">
         <v>605184</v>
@@ -697,8 +713,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>9</v>
+      <c r="A9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10111938</v>
@@ -714,8 +730,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>4984924</v>
@@ -731,8 +747,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>11</v>
+      <c r="A11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>5282878</v>
@@ -748,43 +764,43 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2048</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>65536</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>2048</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>65536</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -793,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,463 +821,801 @@
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2426.6999999999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>175.3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2343.19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>58.05</v>
+      </c>
+      <c r="F6">
+        <v>2230.1799999999998</v>
+      </c>
+      <c r="G6">
+        <v>51.69</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1903.35</v>
+      </c>
+      <c r="I6" s="6">
+        <v>16.28</v>
+      </c>
+      <c r="J6">
+        <v>1934.83</v>
+      </c>
+      <c r="K6">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1910.96</v>
+      </c>
+      <c r="M6" s="6">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
-        <v>2426.6999999999998</v>
-      </c>
-      <c r="C6" s="10">
-        <v>175.3</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2343.19</v>
-      </c>
-      <c r="E6" s="10">
-        <v>58.05</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1910.96</v>
-      </c>
-      <c r="G6" s="10">
-        <v>13.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="6">
+        <v>1013.72</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8.1760000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1069.6400000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>15.26</v>
+      </c>
+      <c r="F7">
+        <v>1038.1400000000001</v>
+      </c>
+      <c r="G7">
+        <v>38.46</v>
+      </c>
+      <c r="H7">
+        <v>839.01199999999994</v>
+      </c>
+      <c r="I7">
+        <v>26.03</v>
+      </c>
+      <c r="J7">
+        <v>836.08799999999997</v>
+      </c>
+      <c r="K7">
+        <v>17.28</v>
+      </c>
+      <c r="L7" s="6">
+        <v>592.83299999999997</v>
+      </c>
+      <c r="M7" s="6">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
-        <v>1013.72</v>
-      </c>
-      <c r="C7" s="10">
-        <v>8.1760000000000002</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1069.6400000000001</v>
-      </c>
-      <c r="E7" s="10">
-        <v>15.26</v>
-      </c>
-      <c r="F7" s="10">
-        <v>592.83299999999997</v>
-      </c>
-      <c r="G7" s="10">
-        <v>23.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="6">
+        <v>2188.7600000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2198.84</v>
+      </c>
+      <c r="E8" s="6">
+        <v>11.55</v>
+      </c>
+      <c r="F8">
+        <v>2194.4899999999998</v>
+      </c>
+      <c r="G8">
+        <v>24.45</v>
+      </c>
+      <c r="H8">
+        <v>1798.92</v>
+      </c>
+      <c r="I8">
+        <v>18.63</v>
+      </c>
+      <c r="J8">
+        <v>1818.59</v>
+      </c>
+      <c r="K8">
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1591.3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>8.0630000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10">
-        <v>2188.7600000000002</v>
-      </c>
-      <c r="C8" s="10">
-        <v>29.5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2198.84</v>
-      </c>
-      <c r="E8" s="10">
-        <v>11.55</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1591.3</v>
-      </c>
-      <c r="G8" s="10">
-        <v>8.0630000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="6">
+        <v>1003.21</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10.24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1012.93</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14.02</v>
+      </c>
+      <c r="F9">
+        <v>984.37199999999996</v>
+      </c>
+      <c r="G9">
+        <v>6.0309999999999997</v>
+      </c>
+      <c r="H9">
+        <v>792.01800000000003</v>
+      </c>
+      <c r="I9">
+        <v>1.46</v>
+      </c>
+      <c r="J9">
+        <v>803.98199999999997</v>
+      </c>
+      <c r="K9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L9" s="6">
+        <v>483.59899999999999</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1.466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10">
-        <v>1003.21</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10.24</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1012.93</v>
-      </c>
-      <c r="E9" s="10">
-        <v>14.02</v>
-      </c>
-      <c r="F9" s="10">
-        <v>483.59899999999999</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1.466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="6">
+        <v>2731.35</v>
+      </c>
+      <c r="C10" s="6">
+        <v>22.18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2699.75</v>
+      </c>
+      <c r="E10" s="6">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>2664.36</v>
+      </c>
+      <c r="G10">
+        <v>29.64</v>
+      </c>
+      <c r="H10">
+        <v>2320.13</v>
+      </c>
+      <c r="I10">
+        <v>104</v>
+      </c>
+      <c r="J10">
+        <v>2222.5300000000002</v>
+      </c>
+      <c r="K10">
+        <v>20.55</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2380.0500000000002</v>
+      </c>
+      <c r="M10" s="6">
+        <v>7.274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10">
-        <v>2731.35</v>
-      </c>
-      <c r="C10" s="10">
-        <v>22.18</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2699.75</v>
-      </c>
-      <c r="E10" s="10">
-        <v>76</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2380.0500000000002</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="B11" s="6">
+        <v>1498.21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>135.9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1342.84</v>
+      </c>
+      <c r="E11" s="6">
+        <v>19.16</v>
+      </c>
+      <c r="F11">
+        <v>1349.47</v>
+      </c>
+      <c r="G11">
+        <v>26.73</v>
+      </c>
+      <c r="H11">
+        <v>1129.81</v>
+      </c>
+      <c r="I11">
+        <v>6.8739999999999997</v>
+      </c>
+      <c r="J11">
+        <v>1027.01</v>
+      </c>
+      <c r="K11">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1028.72</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5.6639999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2641.73</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10.95</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2564.1999999999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>31.59</v>
+      </c>
+      <c r="F12">
+        <v>2527.86</v>
+      </c>
+      <c r="G12">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="H12">
+        <v>2151.96</v>
+      </c>
+      <c r="I12">
+        <v>10.94</v>
+      </c>
+      <c r="J12">
+        <v>2113.4</v>
+      </c>
+      <c r="K12">
+        <v>25.03</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1706.93</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.30940000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1389.58</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1246.47</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5.4720000000000004</v>
+      </c>
+      <c r="F13">
+        <v>1300.98</v>
+      </c>
+      <c r="G13">
+        <v>44.04</v>
+      </c>
+      <c r="H13">
+        <v>1076.22</v>
+      </c>
+      <c r="I13">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="J13">
+        <v>1001.44</v>
+      </c>
+      <c r="K13">
+        <v>6.0890000000000004</v>
+      </c>
+      <c r="L13" s="6">
+        <v>627.14800000000002</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.31730000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2001.48</v>
+      </c>
+      <c r="C14" s="6">
+        <v>11.65</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1907.65</v>
+      </c>
+      <c r="E14" s="6">
+        <v>22.32</v>
+      </c>
+      <c r="F14">
+        <v>1567.46</v>
+      </c>
+      <c r="G14">
+        <v>11.79</v>
+      </c>
+      <c r="H14">
+        <v>1656.66</v>
+      </c>
+      <c r="I14">
+        <v>11.1</v>
+      </c>
+      <c r="J14">
+        <v>1582.85</v>
+      </c>
+      <c r="K14">
+        <v>18.25</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1744.56</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6">
+        <v>549.09</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="D15" s="6">
+        <v>417.91500000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="F15">
+        <v>415.22699999999998</v>
+      </c>
+      <c r="G15">
+        <v>27.26</v>
+      </c>
+      <c r="H15">
+        <v>444.17700000000002</v>
+      </c>
+      <c r="I15">
+        <v>4.319</v>
+      </c>
+      <c r="J15">
+        <v>328.72</v>
+      </c>
+      <c r="K15">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <v>231.083</v>
+      </c>
+      <c r="M15" s="6">
+        <v>8.7520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3020.76</v>
+      </c>
+      <c r="C16" s="6">
+        <v>114.5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2778.25</v>
+      </c>
+      <c r="E16" s="6">
+        <v>81.8</v>
+      </c>
+      <c r="F16">
+        <v>2654.8</v>
+      </c>
+      <c r="G16">
+        <v>52.39</v>
+      </c>
+      <c r="H16">
+        <v>2461.79</v>
+      </c>
+      <c r="I16">
+        <v>42.37</v>
+      </c>
+      <c r="J16">
+        <v>2276.89</v>
+      </c>
+      <c r="K16">
+        <v>82.46</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2282.29</v>
+      </c>
+      <c r="M16" s="6">
+        <v>8.0190000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1193.1400000000001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>71.44</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1131.8900000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>84.46</v>
+      </c>
+      <c r="F17">
+        <v>1053.0899999999999</v>
+      </c>
+      <c r="G17">
+        <v>17.62</v>
+      </c>
+      <c r="H17">
+        <v>899.85199999999998</v>
+      </c>
+      <c r="I17">
+        <v>6.4379999999999997</v>
+      </c>
+      <c r="J17">
+        <v>908.26700000000005</v>
+      </c>
+      <c r="K17">
+        <v>83.71</v>
+      </c>
+      <c r="L17" s="6">
+        <v>623.54200000000003</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1.8149999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2781.32</v>
+      </c>
+      <c r="C18" s="6">
+        <v>27.07</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2697.11</v>
+      </c>
+      <c r="E18" s="6">
+        <v>12.88</v>
+      </c>
+      <c r="F18">
+        <v>2511.9299999999998</v>
+      </c>
+      <c r="G18">
+        <v>60.8</v>
+      </c>
+      <c r="H18">
+        <v>2257.27</v>
+      </c>
+      <c r="I18">
+        <v>20.98</v>
+      </c>
+      <c r="J18">
+        <v>2171.9499999999998</v>
+      </c>
+      <c r="K18">
+        <v>14.42</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2093.98</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.86739999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1119.42</v>
+      </c>
+      <c r="C19" s="6">
         <v>7.274</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1498.21</v>
-      </c>
-      <c r="C11" s="10">
-        <v>135.9</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1342.84</v>
-      </c>
-      <c r="E11" s="10">
-        <v>19.16</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1028.72</v>
-      </c>
-      <c r="G11" s="10">
-        <v>5.6639999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2641.73</v>
-      </c>
-      <c r="C12" s="10">
-        <v>10.95</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2564.1999999999998</v>
-      </c>
-      <c r="E12" s="10">
-        <v>31.59</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1706.93</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.30940000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1389.58</v>
-      </c>
-      <c r="C13" s="10">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1246.47</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5.4720000000000004</v>
-      </c>
-      <c r="F13" s="10">
-        <v>627.14800000000002</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.31730000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2001.48</v>
-      </c>
-      <c r="C14" s="10">
-        <v>11.65</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1907.65</v>
-      </c>
-      <c r="E14" s="10">
-        <v>22.32</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1744.56</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1.548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="10">
-        <v>549.09</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3.3079999999999998</v>
-      </c>
-      <c r="D15" s="10">
-        <v>417.91500000000002</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.9540000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <v>231.083</v>
-      </c>
-      <c r="G15" s="10">
-        <v>8.7520000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10">
-        <v>3020.76</v>
-      </c>
-      <c r="C16" s="10">
-        <v>114.5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2778.25</v>
-      </c>
-      <c r="E16" s="10">
-        <v>81.8</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2282.29</v>
-      </c>
-      <c r="G16" s="10">
-        <v>8.0190000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1193.1400000000001</v>
-      </c>
-      <c r="C17" s="10">
-        <v>71.44</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1131.8900000000001</v>
-      </c>
-      <c r="E17" s="10">
-        <v>84.46</v>
-      </c>
-      <c r="F17" s="10">
-        <v>623.54200000000003</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1.8149999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2781.32</v>
-      </c>
-      <c r="C18" s="10">
-        <v>27.07</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2697.11</v>
-      </c>
-      <c r="E18" s="10">
-        <v>12.88</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2093.98</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.86739999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D19" s="6">
+        <v>1037.81</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="F19">
+        <v>1021.93</v>
+      </c>
+      <c r="G19">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="H19">
+        <v>905.01099999999997</v>
+      </c>
+      <c r="I19">
+        <v>9.5690000000000008</v>
+      </c>
+      <c r="J19">
+        <v>821.202</v>
+      </c>
+      <c r="K19">
+        <v>11.53</v>
+      </c>
+      <c r="L19" s="6">
+        <v>534.66800000000001</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="10">
-        <v>1119.42</v>
-      </c>
-      <c r="C19" s="10">
-        <v>7.274</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1037.81</v>
-      </c>
-      <c r="E19" s="10">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="F19" s="10">
-        <v>534.66800000000001</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1.2010000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" s="6">
+        <v>4254.3599999999997</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42.26</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3898.83</v>
+      </c>
+      <c r="E20" s="6">
+        <v>32.14</v>
+      </c>
+      <c r="F20">
+        <v>3781.97</v>
+      </c>
+      <c r="G20">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="H20">
+        <v>3581.2</v>
+      </c>
+      <c r="I20">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="J20">
+        <v>3110.61</v>
+      </c>
+      <c r="K20">
+        <v>10.42</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3460.39</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="10">
-        <v>4254.3599999999997</v>
-      </c>
-      <c r="C20" s="10">
-        <v>42.26</v>
-      </c>
-      <c r="D20" s="10">
-        <v>3898.83</v>
-      </c>
-      <c r="E20" s="10">
-        <v>32.14</v>
-      </c>
-      <c r="F20" s="10">
-        <v>3460.39</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>4211.2700000000004</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>16.239999999999998</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>3986.1</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>17.54</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21">
+        <v>3850.59</v>
+      </c>
+      <c r="G21">
+        <v>23.89</v>
+      </c>
+      <c r="H21">
+        <v>3561.43</v>
+      </c>
+      <c r="I21">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="J21">
+        <v>3358.91</v>
+      </c>
+      <c r="K21">
+        <v>32.92</v>
+      </c>
+      <c r="L21" s="6">
         <v>3550.59</v>
       </c>
-      <c r="G21" s="10">
+      <c r="M21" s="6">
         <v>1.028</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1270,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,93 +1636,141 @@
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
         <v>1885.45</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>17.46</v>
       </c>
       <c r="D6">
@@ -1377,21 +1779,39 @@
       <c r="E6">
         <v>15.18</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6">
+        <v>1807.61</v>
+      </c>
+      <c r="G6">
+        <v>14.77</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1555.26</v>
+      </c>
+      <c r="I6" s="6">
+        <v>12.02</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1504.1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="L6" s="6">
         <v>1528.61</v>
       </c>
-      <c r="G6" s="10">
+      <c r="M6" s="6">
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
         <v>900.85799999999995</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>15.51</v>
       </c>
       <c r="D7">
@@ -1400,21 +1820,39 @@
       <c r="E7">
         <v>12.4</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
+        <v>1080.57</v>
+      </c>
+      <c r="G7">
+        <v>28.56</v>
+      </c>
+      <c r="H7" s="6">
+        <v>710.92700000000002</v>
+      </c>
+      <c r="I7" s="6">
+        <v>18.66</v>
+      </c>
+      <c r="J7" s="6">
+        <v>831.21299999999997</v>
+      </c>
+      <c r="K7" s="6">
+        <v>17.38</v>
+      </c>
+      <c r="L7" s="6">
         <v>194.72300000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="M7" s="6">
         <v>2.415</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
         <v>1881.38</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>9.7720000000000002</v>
       </c>
       <c r="D8">
@@ -1423,21 +1861,39 @@
       <c r="E8">
         <v>22.15</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
+        <v>1850.37</v>
+      </c>
+      <c r="G8">
+        <v>26.47</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1540.17</v>
+      </c>
+      <c r="I8" s="6">
+        <v>11.56</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1551.57</v>
+      </c>
+      <c r="K8" s="6">
+        <v>10.51</v>
+      </c>
+      <c r="L8" s="6">
         <v>1245.8900000000001</v>
       </c>
-      <c r="G8" s="10">
+      <c r="M8" s="6">
         <v>1.4359999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
         <v>929.26700000000005</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>14.66</v>
       </c>
       <c r="D9">
@@ -1446,21 +1902,39 @@
       <c r="E9">
         <v>5.9749999999999996</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
+        <v>986.70699999999999</v>
+      </c>
+      <c r="G9">
+        <v>6.2270000000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>706.56299999999999</v>
+      </c>
+      <c r="I9" s="6">
+        <v>6.4660000000000002</v>
+      </c>
+      <c r="J9" s="6">
+        <v>747.70699999999999</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="L9" s="6">
         <v>207.37</v>
       </c>
-      <c r="G9" s="10">
+      <c r="M9" s="6">
         <v>1.218</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
         <v>1435.47</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>6.6680000000000001</v>
       </c>
       <c r="D10">
@@ -1469,21 +1943,39 @@
       <c r="E10">
         <v>2.6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10">
+        <v>1384.33</v>
+      </c>
+      <c r="G10">
+        <v>27.78</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1209.44</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9.6590000000000007</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1190.22</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="L10" s="6">
         <v>1306.72</v>
       </c>
-      <c r="G10" s="10">
+      <c r="M10" s="6">
         <v>2.476</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
         <v>474.86500000000001</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>4.5190000000000001</v>
       </c>
       <c r="D11">
@@ -1492,21 +1984,39 @@
       <c r="E11">
         <v>3.1219999999999999</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
+        <v>554.97299999999996</v>
+      </c>
+      <c r="G11">
+        <v>4.5730000000000004</v>
+      </c>
+      <c r="H11" s="6">
+        <v>344.13200000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="J11" s="6">
+        <v>389.512</v>
+      </c>
+      <c r="K11" s="6">
+        <v>14.11</v>
+      </c>
+      <c r="L11" s="6">
         <v>165.691</v>
       </c>
-      <c r="G11" s="10">
+      <c r="M11" s="6">
         <v>0.83440000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
         <v>1430.96</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>2.9039999999999999</v>
       </c>
       <c r="D12">
@@ -1515,21 +2025,39 @@
       <c r="E12">
         <v>4.7670000000000003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12">
+        <v>1385.12</v>
+      </c>
+      <c r="G12">
+        <v>8.7919999999999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1177.93</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7.0209999999999999</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1241.19</v>
+      </c>
+      <c r="K12" s="6">
+        <v>14.97</v>
+      </c>
+      <c r="L12" s="6">
         <v>1243.83</v>
       </c>
-      <c r="G12" s="10">
+      <c r="M12" s="6">
         <v>1.4610000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
         <v>467.03500000000003</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>1.1559999999999999</v>
       </c>
       <c r="D13">
@@ -1538,21 +2066,39 @@
       <c r="E13">
         <v>4.7069999999999999</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13">
+        <v>624.61500000000001</v>
+      </c>
+      <c r="G13">
+        <v>3.4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>335.53199999999998</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="J13" s="6">
+        <v>493.77300000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>6.048</v>
+      </c>
+      <c r="L13" s="6">
         <v>188.07499999999999</v>
       </c>
-      <c r="G13" s="10">
+      <c r="M13" s="6">
         <v>0.92649999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6">
         <v>1214.5899999999999</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>3.6909999999999998</v>
       </c>
       <c r="D14">
@@ -1561,21 +2107,39 @@
       <c r="E14">
         <v>3.5489999999999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14">
+        <v>1122.28</v>
+      </c>
+      <c r="G14">
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="H14" s="6">
+        <v>998.05</v>
+      </c>
+      <c r="I14" s="6">
+        <v>10.43</v>
+      </c>
+      <c r="J14" s="6">
+        <v>990.63699999999994</v>
+      </c>
+      <c r="K14" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="L14" s="6">
         <v>1068.6400000000001</v>
       </c>
-      <c r="G14" s="10">
+      <c r="M14" s="6">
         <v>0.27379999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="10">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6">
         <v>445.65699999999998</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>2.7669999999999999</v>
       </c>
       <c r="D15">
@@ -1584,21 +2148,39 @@
       <c r="E15">
         <v>1.4350000000000001</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15">
+        <v>311.81900000000002</v>
+      </c>
+      <c r="G15">
+        <v>18.72</v>
+      </c>
+      <c r="H15" s="6">
+        <v>341.61900000000003</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="J15" s="6">
+        <v>213.46799999999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>9.8160000000000007</v>
+      </c>
+      <c r="L15" s="6">
         <v>132.071</v>
       </c>
-      <c r="G15" s="10">
+      <c r="M15" s="6">
         <v>0.45529999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
         <v>1487.34</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>6.6390000000000002</v>
       </c>
       <c r="D16">
@@ -1607,21 +2189,39 @@
       <c r="E16">
         <v>25.86</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16">
+        <v>1313.08</v>
+      </c>
+      <c r="G16">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1234.6300000000001</v>
+      </c>
+      <c r="I16" s="6">
+        <v>18.46</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1138.4000000000001</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3.359</v>
+      </c>
+      <c r="L16" s="6">
         <v>1271.75</v>
       </c>
-      <c r="G16" s="10">
+      <c r="M16" s="6">
         <v>15.34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
         <v>530.40899999999999</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>2.6429999999999998</v>
       </c>
       <c r="D17">
@@ -1630,21 +2230,39 @@
       <c r="E17">
         <v>12.77</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
+        <v>465.65699999999998</v>
+      </c>
+      <c r="G17">
+        <v>4.0910000000000002</v>
+      </c>
+      <c r="H17" s="6">
+        <v>401.74799999999999</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8.6159999999999997</v>
+      </c>
+      <c r="J17" s="6">
+        <v>343.62900000000002</v>
+      </c>
+      <c r="K17" s="6">
+        <v>5.3719999999999999</v>
+      </c>
+      <c r="L17" s="6">
         <v>170.661</v>
       </c>
-      <c r="G17" s="10">
+      <c r="M17" s="6">
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="10">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
         <v>1453.54</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>6.8440000000000003</v>
       </c>
       <c r="D18">
@@ -1653,21 +2271,39 @@
       <c r="E18">
         <v>6.5119999999999996</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18">
+        <v>1310.05</v>
+      </c>
+      <c r="G18">
+        <v>8.125</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1211.03</v>
+      </c>
+      <c r="I18" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1151.33</v>
+      </c>
+      <c r="K18" s="6">
+        <v>15.33</v>
+      </c>
+      <c r="L18" s="6">
         <v>1280.04</v>
       </c>
-      <c r="G18" s="10">
+      <c r="M18" s="6">
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="10">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6">
         <v>526.96900000000005</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>3.5110000000000001</v>
       </c>
       <c r="D19">
@@ -1676,21 +2312,39 @@
       <c r="E19">
         <v>2.9580000000000002</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19">
+        <v>470.31400000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.9476</v>
+      </c>
+      <c r="H19" s="6">
+        <v>396.41399999999999</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="J19" s="6">
+        <v>339.53300000000002</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="L19" s="6">
         <v>171.66200000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="M19" s="6">
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6">
         <v>472.99299999999999</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>13.1</v>
       </c>
       <c r="D20">
@@ -1699,21 +2353,39 @@
       <c r="E20">
         <v>1.4079999999999999</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20">
+        <v>499.59100000000001</v>
+      </c>
+      <c r="G20">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="H20" s="6">
+        <v>351.21600000000001</v>
+      </c>
+      <c r="I20" s="6">
+        <v>9.0540000000000003</v>
+      </c>
+      <c r="J20" s="6">
+        <v>375.25299999999999</v>
+      </c>
+      <c r="K20" s="6">
+        <v>27.29</v>
+      </c>
+      <c r="L20" s="6">
         <v>251.63</v>
       </c>
-      <c r="G20" s="10">
+      <c r="M20" s="6">
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="10">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6">
         <v>416.55700000000002</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>1.581</v>
       </c>
       <c r="D21">
@@ -1722,24 +2394,424 @@
       <c r="E21">
         <v>3.6909999999999998</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21">
+        <v>484.92899999999997</v>
+      </c>
+      <c r="G21">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="H21" s="6">
+        <v>348.27699999999999</v>
+      </c>
+      <c r="I21" s="6">
+        <v>25.85</v>
+      </c>
+      <c r="J21" s="6">
+        <v>384.59800000000001</v>
+      </c>
+      <c r="K21" s="6">
+        <v>8.3450000000000006</v>
+      </c>
+      <c r="L21" s="6">
         <v>231.47399999999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="M21" s="6">
         <v>0.62009999999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>2230.1799999999998</v>
+      </c>
+      <c r="C1">
+        <v>51.69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1038.1400000000001</v>
+      </c>
+      <c r="C2">
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>2194.4899999999998</v>
+      </c>
+      <c r="C3">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>984.37199999999996</v>
+      </c>
+      <c r="C4">
+        <v>6.0309999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2664.36</v>
+      </c>
+      <c r="C5">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1349.47</v>
+      </c>
+      <c r="C6">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2527.86</v>
+      </c>
+      <c r="C7">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1300.98</v>
+      </c>
+      <c r="C8">
+        <v>44.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1567.46</v>
+      </c>
+      <c r="C9">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>415.22699999999998</v>
+      </c>
+      <c r="C10">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>2654.8</v>
+      </c>
+      <c r="C11">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>1053.0899999999999</v>
+      </c>
+      <c r="C12">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>2511.9299999999998</v>
+      </c>
+      <c r="C13">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1021.93</v>
+      </c>
+      <c r="C14">
+        <v>6.0380000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>3781.97</v>
+      </c>
+      <c r="C15">
+        <v>34.090000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>3850.59</v>
+      </c>
+      <c r="C16">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1807.61</v>
+      </c>
+      <c r="C19">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1080.57</v>
+      </c>
+      <c r="C20">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1850.37</v>
+      </c>
+      <c r="C21">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>986.70699999999999</v>
+      </c>
+      <c r="C22">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1384.33</v>
+      </c>
+      <c r="C23">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>554.97299999999996</v>
+      </c>
+      <c r="C24">
+        <v>4.5730000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1385.12</v>
+      </c>
+      <c r="C25">
+        <v>8.7919999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>624.61500000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1122.28</v>
+      </c>
+      <c r="C27">
+        <v>3.2120000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>311.81900000000002</v>
+      </c>
+      <c r="C28">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1313.08</v>
+      </c>
+      <c r="C29">
+        <v>3.2519999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>465.65699999999998</v>
+      </c>
+      <c r="C30">
+        <v>4.0910000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1310.05</v>
+      </c>
+      <c r="C31">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>470.31400000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.9476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>499.59100000000001</v>
+      </c>
+      <c r="C33">
+        <v>2.3250000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>484.92899999999997</v>
+      </c>
+      <c r="C34">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LRUCacheTestResults.xlsx
+++ b/LRUCacheTestResults.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="3780" windowHeight="2160" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="3780" windowHeight="2160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Description" sheetId="1" r:id="rId1"/>
     <sheet name="Sequence #1" sheetId="4" r:id="rId2"/>
     <sheet name="Sequence #2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sequence #1 (2016.12.20)" sheetId="6" r:id="rId5"/>
+    <sheet name="Sequence #2 (2016.12.20)" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_1_x86" localSheetId="1">'Sequence #1'!$A$6:$C$21</definedName>
+    <definedName name="_1_x86" localSheetId="4">'Sequence #1 (2016.12.20)'!$A$7:$C$22</definedName>
     <definedName name="_1_x86" localSheetId="2">'Sequence #2'!$A$6:$C$21</definedName>
+    <definedName name="_1_x86" localSheetId="5">'Sequence #2 (2016.12.20)'!$A$7:$C$22</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -40,11 +44,29 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="1_x862" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="866" firstRow="2" sourceFile="E:\MyBoostExperiments\LRUCacheTest\1_x86.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="1_x8621" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="866" firstRow="2" sourceFile="E:\MyBoostExperiments\LRUCacheTest\1_x86.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
   <si>
     <t>The LRUCacheTest is a project comparing performance of different implementations of cache with LRU replacement policies</t>
   </si>
@@ -193,7 +215,22 @@
     <t>The second test sequence results summary:</t>
   </si>
   <si>
-    <t>Test Name, Average Running time(ms), Average Absolute Running Time Deviation(ms)</t>
+    <t>Av. Time(ms)</t>
+  </si>
+  <si>
+    <t>Std.Dev.</t>
+  </si>
+  <si>
+    <t>boost::hash</t>
+  </si>
+  <si>
+    <t>boost::hash &amp; boost::containers</t>
+  </si>
+  <si>
+    <t>Test Name, Average Running time(ms), Standard Deviation(ms)</t>
+  </si>
+  <si>
+    <t>The first test sequence results summary:</t>
   </si>
 </sst>
 </file>
@@ -238,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -264,13 +301,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,6 +332,14 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_x86" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_x86" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_x86" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,34 +645,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -664,36 +712,36 @@
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>16000000</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -767,40 +815,40 @@
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="11">
         <v>2048</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <v>65536</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -811,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -828,88 +876,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1645,88 +1693,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2441,377 +2489,2456 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C16"/>
+      <selection activeCell="B21" sqref="B21:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1">
-        <v>2230.1799999999998</v>
-      </c>
-      <c r="C1">
-        <v>51.69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>1038.1400000000001</v>
-      </c>
-      <c r="C2">
-        <v>38.46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>2194.4899999999998</v>
+        <v>1900.63</v>
       </c>
       <c r="C3">
-        <v>24.45</v>
+        <v>2.7490000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>984.37199999999996</v>
+        <v>870.03599999999994</v>
       </c>
       <c r="C4">
-        <v>6.0309999999999997</v>
+        <v>3.5089999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>2664.36</v>
+        <v>1712.46</v>
       </c>
       <c r="C5">
-        <v>29.64</v>
+        <v>0.58979999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>1349.47</v>
+        <v>760.15700000000004</v>
       </c>
       <c r="C6">
-        <v>26.73</v>
+        <v>0.76529999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>2527.86</v>
+        <v>2450.8200000000002</v>
       </c>
       <c r="C7">
-        <v>16.739999999999998</v>
+        <v>4.8659999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>1300.98</v>
+        <v>1319.29</v>
       </c>
       <c r="C8">
-        <v>44.04</v>
+        <v>3.4140000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>1567.46</v>
+        <v>1887.36</v>
       </c>
       <c r="C9">
-        <v>11.79</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>415.22699999999998</v>
+        <v>890.28200000000004</v>
       </c>
       <c r="C10">
-        <v>27.26</v>
+        <v>2.5430000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>2654.8</v>
+        <v>1510.5</v>
       </c>
       <c r="C11">
-        <v>52.39</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>1053.0899999999999</v>
+        <v>237.07</v>
       </c>
       <c r="C12">
-        <v>17.62</v>
+        <v>0.39090000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>2511.9299999999998</v>
+        <v>2285.96</v>
       </c>
       <c r="C13">
-        <v>60.8</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>1021.93</v>
+        <v>619.279</v>
       </c>
       <c r="C14">
-        <v>6.0380000000000003</v>
+        <v>3.2890000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>3781.97</v>
+        <v>2115.15</v>
       </c>
       <c r="C15">
-        <v>34.090000000000003</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>3850.59</v>
+        <v>542.00300000000004</v>
       </c>
       <c r="C16">
-        <v>23.89</v>
+        <v>0.77070000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>3547.4</v>
+      </c>
+      <c r="C17">
+        <v>8.2409999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>3512.47</v>
+      </c>
+      <c r="C18">
+        <v>5.4960000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1807.61</v>
-      </c>
-      <c r="C19">
-        <v>14.77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1080.57</v>
-      </c>
-      <c r="C20">
-        <v>28.56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1850.37</v>
+        <v>1399.54</v>
       </c>
       <c r="C21">
-        <v>26.47</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>986.70699999999999</v>
+        <v>302.964</v>
       </c>
       <c r="C22">
-        <v>6.2270000000000003</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>1384.33</v>
+        <v>1313.2</v>
       </c>
       <c r="C23">
-        <v>27.78</v>
+        <v>1.407</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>554.97299999999996</v>
+        <v>300.86099999999999</v>
       </c>
       <c r="C24">
-        <v>4.5730000000000004</v>
+        <v>4.7169999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>1385.12</v>
+        <v>1129.69</v>
       </c>
       <c r="C25">
-        <v>8.7919999999999998</v>
+        <v>7.4560000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>624.61500000000001</v>
+        <v>294.54599999999999</v>
       </c>
       <c r="C26">
-        <v>3.4</v>
+        <v>2.4689999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>1122.28</v>
+        <v>1149.96</v>
       </c>
       <c r="C27">
-        <v>3.2120000000000002</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>311.81900000000002</v>
+        <v>306.721</v>
       </c>
       <c r="C28">
-        <v>18.72</v>
+        <v>1.768</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>1313.08</v>
+        <v>1076.6099999999999</v>
       </c>
       <c r="C29">
-        <v>3.2519999999999998</v>
+        <v>0.5413</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>465.65699999999998</v>
+        <v>134.37799999999999</v>
       </c>
       <c r="C30">
-        <v>4.0910000000000002</v>
+        <v>0.6633</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>1310.05</v>
+        <v>1269.44</v>
       </c>
       <c r="C31">
-        <v>8.125</v>
+        <v>6.3460000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>470.31400000000002</v>
+        <v>170.28800000000001</v>
       </c>
       <c r="C32">
-        <v>0.9476</v>
+        <v>0.34689999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>499.59100000000001</v>
+        <v>1297.02</v>
       </c>
       <c r="C33">
-        <v>2.3250000000000002</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>173.244</v>
+      </c>
+      <c r="C34">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>191.03299999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>484.92899999999997</v>
-      </c>
-      <c r="C34">
-        <v>2.6859999999999999</v>
+      <c r="B36">
+        <v>232.67099999999999</v>
+      </c>
+      <c r="C36">
+        <v>5.0629999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2325.48</v>
+      </c>
+      <c r="C7" s="6">
+        <v>108.1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2465.0100000000002</v>
+      </c>
+      <c r="E7" s="6">
+        <v>166</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2291.04</v>
+      </c>
+      <c r="G7" s="6">
+        <v>71.03</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2361.7600000000002</v>
+      </c>
+      <c r="I7" s="6">
+        <v>71.75</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2315.4299999999998</v>
+      </c>
+      <c r="K7" s="6">
+        <v>78.13</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2413.85</v>
+      </c>
+      <c r="M7" s="6">
+        <v>82.58</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6">
+        <v>1900.63</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2.7490000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1057.78</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19.47</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1107.4000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>55.46</v>
+      </c>
+      <c r="F8" s="6">
+        <v>936.12099999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6.1040000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>818.85</v>
+      </c>
+      <c r="I8" s="6">
+        <v>7.7190000000000003</v>
+      </c>
+      <c r="J8" s="6">
+        <v>940.49599999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="L8" s="6">
+        <v>878.05600000000004</v>
+      </c>
+      <c r="M8" s="6">
+        <v>141.9</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>870.03599999999994</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3.5089999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2203.9299999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>41.18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2402.94</v>
+      </c>
+      <c r="E9" s="6">
+        <v>106.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2200.9699999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>15.25</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2187.73</v>
+      </c>
+      <c r="I9" s="6">
+        <v>11.19</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2208.1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>27.92</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2199.91</v>
+      </c>
+      <c r="M9" s="6">
+        <v>28.09</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
+        <v>1712.46</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.58979999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1033.07</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.0640000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1136.49</v>
+      </c>
+      <c r="E10" s="6">
+        <v>148.6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>930.18499999999995</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8.6579999999999995</v>
+      </c>
+      <c r="H10" s="6">
+        <v>778.59100000000001</v>
+      </c>
+      <c r="I10" s="6">
+        <v>21.75</v>
+      </c>
+      <c r="J10" s="6">
+        <v>936.54100000000005</v>
+      </c>
+      <c r="K10" s="6">
+        <v>24.01</v>
+      </c>
+      <c r="L10" s="6">
+        <v>775.92100000000005</v>
+      </c>
+      <c r="M10" s="6">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>760.15700000000004</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.76529999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2672.72</v>
+      </c>
+      <c r="C11" s="6">
+        <v>30.49</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3037.59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>237.3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2752.01</v>
+      </c>
+      <c r="G11" s="6">
+        <v>49.76</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2629.91</v>
+      </c>
+      <c r="I11" s="6">
+        <v>13.95</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2723.93</v>
+      </c>
+      <c r="K11" s="6">
+        <v>46.87</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2672.79</v>
+      </c>
+      <c r="M11" s="6">
+        <v>30.29</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <v>2450.8200000000002</v>
+      </c>
+      <c r="S11" s="6">
+        <v>4.8659999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1436.33</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20.51</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1491.05</v>
+      </c>
+      <c r="E12" s="6">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1381.16</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7.2880000000000003</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1164.21</v>
+      </c>
+      <c r="I12" s="6">
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1393.16</v>
+      </c>
+      <c r="K12" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1209.81</v>
+      </c>
+      <c r="M12" s="6">
+        <v>70.13</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>1319.29</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3.4140000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2617.0100000000002</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13.95</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2822.02</v>
+      </c>
+      <c r="E13" s="6">
+        <v>184.8</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2638.54</v>
+      </c>
+      <c r="G13" s="6">
+        <v>14.31</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2591.98</v>
+      </c>
+      <c r="I13" s="6">
+        <v>46.59</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2607.9</v>
+      </c>
+      <c r="K13" s="6">
+        <v>21.54</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2597.59</v>
+      </c>
+      <c r="M13" s="6">
+        <v>25.98</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6">
+        <v>1887.36</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1.452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1438.28</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44.19</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1442.59</v>
+      </c>
+      <c r="E14" s="6">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1365.28</v>
+      </c>
+      <c r="G14" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1127.51</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7.7030000000000003</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1345.64</v>
+      </c>
+      <c r="K14" s="6">
+        <v>8.7919999999999998</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1135.51</v>
+      </c>
+      <c r="M14" s="6">
+        <v>9.5150000000000006</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6">
+        <v>890.28200000000004</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2.5430000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1657.63</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.782</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1754.92</v>
+      </c>
+      <c r="E15" s="6">
+        <v>182.8</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1665.68</v>
+      </c>
+      <c r="G15" s="6">
+        <v>13.22</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1593.35</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42.78</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1660.91</v>
+      </c>
+      <c r="K15" s="6">
+        <v>17</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1584.22</v>
+      </c>
+      <c r="M15" s="6">
+        <v>13.02</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6">
+        <v>1510.5</v>
+      </c>
+      <c r="S15" s="6">
+        <v>4.867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <v>529.57100000000003</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>433.5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>25.27</v>
+      </c>
+      <c r="F16" s="6">
+        <v>520.19299999999998</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3.9289999999999998</v>
+      </c>
+      <c r="H16" s="6">
+        <v>404.46499999999997</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>523.84400000000005</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3.714</v>
+      </c>
+      <c r="L16" s="6">
+        <v>407.39</v>
+      </c>
+      <c r="M16" s="6">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6">
+        <v>237.07</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.39090000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2953.78</v>
+      </c>
+      <c r="C17" s="6">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2916.86</v>
+      </c>
+      <c r="E17" s="6">
+        <v>168.4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2943.07</v>
+      </c>
+      <c r="G17" s="6">
+        <v>198</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2652.9</v>
+      </c>
+      <c r="I17" s="6">
+        <v>105</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2937.87</v>
+      </c>
+      <c r="K17" s="6">
+        <v>184.2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2661.57</v>
+      </c>
+      <c r="M17" s="6">
+        <v>105.6</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6">
+        <v>2285.96</v>
+      </c>
+      <c r="S17" s="6">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1106.19</v>
+      </c>
+      <c r="C18" s="6">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1133.8800000000001</v>
+      </c>
+      <c r="E18" s="6">
+        <v>93.27</v>
+      </c>
+      <c r="F18" s="6">
+        <v>989.56899999999996</v>
+      </c>
+      <c r="G18" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>894.55100000000004</v>
+      </c>
+      <c r="I18" s="6">
+        <v>61.52</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1002.81</v>
+      </c>
+      <c r="K18" s="6">
+        <v>56.07</v>
+      </c>
+      <c r="L18" s="6">
+        <v>892.048</v>
+      </c>
+      <c r="M18" s="6">
+        <v>46.27</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6">
+        <v>619.279</v>
+      </c>
+      <c r="S18" s="6">
+        <v>3.2890000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2785.26</v>
+      </c>
+      <c r="C19" s="6">
+        <v>39.11</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2652.96</v>
+      </c>
+      <c r="E19" s="6">
+        <v>62.6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2737.25</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9.4079999999999995</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2561.13</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14.68</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2725.59</v>
+      </c>
+      <c r="K19" s="6">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2556.17</v>
+      </c>
+      <c r="M19" s="6">
+        <v>31.92</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6">
+        <v>2115.15</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1038.4100000000001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7.3579999999999997</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1142.6099999999999</v>
+      </c>
+      <c r="E20" s="6">
+        <v>106</v>
+      </c>
+      <c r="F20" s="6">
+        <v>949.89800000000002</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="H20" s="6">
+        <v>809.73699999999997</v>
+      </c>
+      <c r="I20" s="6">
+        <v>7.633</v>
+      </c>
+      <c r="J20" s="6">
+        <v>958.697</v>
+      </c>
+      <c r="K20" s="6">
+        <v>21.99</v>
+      </c>
+      <c r="L20" s="6">
+        <v>841.14599999999996</v>
+      </c>
+      <c r="M20" s="6">
+        <v>68.8</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6">
+        <v>542.00300000000004</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.77070000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4084.39</v>
+      </c>
+      <c r="C21" s="6">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4440.4399999999996</v>
+      </c>
+      <c r="E21" s="6">
+        <v>422</v>
+      </c>
+      <c r="F21" s="6">
+        <v>4023.56</v>
+      </c>
+      <c r="G21" s="6">
+        <v>18.77</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3916.35</v>
+      </c>
+      <c r="I21" s="6">
+        <v>26.49</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4019.71</v>
+      </c>
+      <c r="K21" s="6">
+        <v>24.24</v>
+      </c>
+      <c r="L21" s="6">
+        <v>3950.88</v>
+      </c>
+      <c r="M21" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6">
+        <v>3547.4</v>
+      </c>
+      <c r="S21" s="6">
+        <v>8.2409999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4107.3599999999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>25.24</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4408.1000000000004</v>
+      </c>
+      <c r="E22" s="6">
+        <v>384.1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4373.6000000000004</v>
+      </c>
+      <c r="G22" s="6">
+        <v>73.36</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3940.51</v>
+      </c>
+      <c r="I22" s="6">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4340.3100000000004</v>
+      </c>
+      <c r="K22" s="6">
+        <v>37.79</v>
+      </c>
+      <c r="L22" s="6">
+        <v>3941.11</v>
+      </c>
+      <c r="M22" s="6">
+        <v>23.57</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6">
+        <v>3512.47</v>
+      </c>
+      <c r="S22" s="6">
+        <v>5.4960000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="18" max="19" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1329.2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>27.94</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1371.61</v>
+      </c>
+      <c r="E7" s="6">
+        <v>25.04</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1322.08</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10.79</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1372.45</v>
+      </c>
+      <c r="I7" s="6">
+        <v>12.52</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1321.94</v>
+      </c>
+      <c r="K7" s="6">
+        <v>7.117</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1400.14</v>
+      </c>
+      <c r="M7" s="6">
+        <v>23.35</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="R7" s="6">
+        <v>1399.54</v>
+      </c>
+      <c r="S7" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>475.17899999999997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>583.16099999999994</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6.585</v>
+      </c>
+      <c r="F8" s="6">
+        <v>340.339</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>388.73200000000003</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <v>339.49299999999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="L8" s="6">
+        <v>332.9</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="R8" s="6">
+        <v>302.964</v>
+      </c>
+      <c r="S8" s="6">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1320.92</v>
+      </c>
+      <c r="C9" s="6">
+        <v>17.04</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1380.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>13.83</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1338.92</v>
+      </c>
+      <c r="G9" s="6">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1352.84</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8.66</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1328.66</v>
+      </c>
+      <c r="K9" s="6">
+        <v>13.43</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1358.78</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1313.2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>474.34899999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="D10" s="6">
+        <v>583.005</v>
+      </c>
+      <c r="E10" s="6">
+        <v>21.98</v>
+      </c>
+      <c r="F10" s="6">
+        <v>337.75200000000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H10" s="6">
+        <v>385.35899999999998</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15.55</v>
+      </c>
+      <c r="J10" s="6">
+        <v>337.089</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="L10" s="6">
+        <v>335.77800000000002</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="R10" s="6">
+        <v>300.86099999999999</v>
+      </c>
+      <c r="S10" s="6">
+        <v>4.7169999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1392.7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20.79</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1395.88</v>
+      </c>
+      <c r="E11" s="6">
+        <v>28.77</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1416.49</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1371.62</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10.54</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1419.54</v>
+      </c>
+      <c r="K11" s="6">
+        <v>12.82</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1393.68</v>
+      </c>
+      <c r="M11" s="6">
+        <v>18.64</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1129.69</v>
+      </c>
+      <c r="S11" s="6">
+        <v>7.4560000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>539.25300000000004</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.1390000000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>561.63099999999997</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.9610000000000003</v>
+      </c>
+      <c r="F12" s="6">
+        <v>422.911</v>
+      </c>
+      <c r="G12" s="6">
+        <v>12.04</v>
+      </c>
+      <c r="H12" s="6">
+        <v>409.57499999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>8.89</v>
+      </c>
+      <c r="J12" s="6">
+        <v>423.36500000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L12" s="6">
+        <v>408.56799999999998</v>
+      </c>
+      <c r="M12" s="6">
+        <v>13</v>
+      </c>
+      <c r="R12" s="6">
+        <v>294.54599999999999</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2.4689999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1377.73</v>
+      </c>
+      <c r="C13" s="6">
+        <v>16.47</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1401.51</v>
+      </c>
+      <c r="E13" s="6">
+        <v>13.44</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1370.59</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10.31</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1408.62</v>
+      </c>
+      <c r="I13" s="6">
+        <v>14.12</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1372.97</v>
+      </c>
+      <c r="K13" s="6">
+        <v>19.18</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1415.75</v>
+      </c>
+      <c r="M13" s="6">
+        <v>16.12</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1149.96</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1.603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
+        <v>581.87599999999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>9.0549999999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <v>636.74599999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="F14" s="6">
+        <v>406.01499999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>436.44499999999999</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="J14" s="6">
+        <v>405.04500000000002</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="L14" s="6">
+        <v>426.32799999999997</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="R14" s="6">
+        <v>306.721</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1.768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1151</v>
+      </c>
+      <c r="C15" s="6">
+        <v>12.85</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1136.93</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9.2439999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1131.6400000000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1133.26</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1133.8800000000001</v>
+      </c>
+      <c r="K15" s="6">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1162.54</v>
+      </c>
+      <c r="M15" s="6">
+        <v>14.35</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1076.6099999999999</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <v>437.83100000000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="D16" s="6">
+        <v>304.71100000000001</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>427.71699999999998</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="H16" s="6">
+        <v>304.96899999999999</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.488</v>
+      </c>
+      <c r="J16" s="6">
+        <v>433.65499999999997</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.429</v>
+      </c>
+      <c r="L16" s="6">
+        <v>310.10500000000002</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="R16" s="6">
+        <v>134.37799999999999</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.6633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1443.8</v>
+      </c>
+      <c r="C17" s="6">
+        <v>11.21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1305.8699999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10.65</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1466.95</v>
+      </c>
+      <c r="G17" s="6">
+        <v>16.93</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1308.7</v>
+      </c>
+      <c r="I17" s="6">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1471.56</v>
+      </c>
+      <c r="K17" s="6">
+        <v>30.63</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1324.76</v>
+      </c>
+      <c r="M17" s="6">
+        <v>11.14</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1269.44</v>
+      </c>
+      <c r="S17" s="6">
+        <v>6.3460000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6">
+        <v>471.149</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8.3140000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>471.54399999999998</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.9809999999999999</v>
+      </c>
+      <c r="F18" s="6">
+        <v>326.51499999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>7.3179999999999996</v>
+      </c>
+      <c r="H18" s="6">
+        <v>270.73899999999998</v>
+      </c>
+      <c r="I18" s="6">
+        <v>15.54</v>
+      </c>
+      <c r="J18" s="6">
+        <v>321.858</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <v>270.85899999999998</v>
+      </c>
+      <c r="M18" s="6">
+        <v>14.88</v>
+      </c>
+      <c r="R18" s="6">
+        <v>170.28800000000001</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1410.19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>13.07</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1330.09</v>
+      </c>
+      <c r="E19" s="6">
+        <v>18.68</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1437.72</v>
+      </c>
+      <c r="G19" s="6">
+        <v>27.54</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1338.78</v>
+      </c>
+      <c r="I19" s="6">
+        <v>21.13</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1428.64</v>
+      </c>
+      <c r="K19" s="6">
+        <v>8.0030000000000001</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1326.11</v>
+      </c>
+      <c r="M19" s="6">
+        <v>8.6839999999999993</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1297.02</v>
+      </c>
+      <c r="S19" s="6">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <v>467.84300000000002</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5.76</v>
+      </c>
+      <c r="D20" s="6">
+        <v>470.81799999999998</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="F20" s="6">
+        <v>324.19400000000002</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="H20" s="6">
+        <v>255.608</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="J20" s="6">
+        <v>317.77199999999999</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="L20" s="6">
+        <v>255.89699999999999</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="R20" s="6">
+        <v>173.244</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
+        <v>412.714</v>
+      </c>
+      <c r="C21" s="6">
+        <v>5.585</v>
+      </c>
+      <c r="D21" s="6">
+        <v>508.995</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="F21" s="6">
+        <v>312.06400000000002</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>323.56299999999999</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="J21" s="6">
+        <v>313.59300000000002</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3.6949999999999998</v>
+      </c>
+      <c r="L21" s="6">
+        <v>325.41399999999999</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="R21" s="6">
+        <v>191.03299999999999</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <v>406.96</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>490.75799999999998</v>
+      </c>
+      <c r="E22" s="6">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="F22" s="6">
+        <v>284.33800000000002</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="H22" s="6">
+        <v>236.26</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.387</v>
+      </c>
+      <c r="J22" s="6">
+        <v>284.851</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="L22" s="6">
+        <v>240.036</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="R22" s="6">
+        <v>232.67099999999999</v>
+      </c>
+      <c r="S22" s="6">
+        <v>5.0629999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LRUCacheTestResults.xlsx
+++ b/LRUCacheTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="3780" windowHeight="2160" tabRatio="778" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="3780" windowHeight="2160" tabRatio="951" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Description" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,88 @@
     <author>Sergey Korytnik</author>
   </authors>
   <commentList>
+    <comment ref="R4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sergey Korytnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+boost::unordered_map instead of std::unordered_map
+boost::container::map instead of std::::map
+boost::container::list instead of std::list
+boost::hash instead of std::hash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sergey Korytnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+boost::unordered_map instead of std::unordered_map
+boost::container::map instead of std::::map
+boost::container::list instead of std::list
+boost::hash instead of std::hash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sergey Korytnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+boost::unordered_map instead of std::unordered_map
+boost::container::map instead of std::::map
+boost::container::list instead of std::list
+boost::hash instead of std::hash</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0">
       <text>
         <r>
@@ -1320,6 +1402,74 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sergey Korytnik</author>
+  </authors>
+  <commentList>
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sergey Korytnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+g++ LRUCacheTest.cpp -ID:\graphics\lib\boost_1_61_0\ -std=c++14 -D_NDEBUG -O3 2&gt; a.txt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sergey Korytnik</author>
+  </authors>
+  <commentList>
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sergey Korytnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+g++ LRUCacheTest.cpp -ID:\graphics\lib\boost_1_61_0\ -std=c++14 -D_NDEBUG -O3 2&gt; a.txt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="1_x86" type="6" refreshedVersion="4" background="1" saveData="1">
@@ -1380,7 +1530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="60">
   <si>
     <t>The LRUCacheTest is a project comparing performance of different implementations of cache with LRU replacement policies</t>
   </si>
@@ -1395,9 +1545,6 @@
   </si>
   <si>
     <t>Cache Hit Count</t>
-  </si>
-  <si>
-    <t>1st Sequence on MS Windows</t>
   </si>
   <si>
     <t>Key distribution</t>
@@ -1415,15 +1562,6 @@
     <t>Total "put" Operation Count</t>
   </si>
   <si>
-    <t>1st Sequence on Mac OS</t>
-  </si>
-  <si>
-    <t>2nd sequence on MS Windows</t>
-  </si>
-  <si>
-    <t>2nd sequence on Mac OS</t>
-  </si>
-  <si>
     <t>uniform(232508, 234108)</t>
   </si>
   <si>
@@ -1431,9 +1569,6 @@
   </si>
   <si>
     <t>Notes:</t>
-  </si>
-  <si>
-    <t>The sequence models a situation when a cache is heavily overused. It has too small size.</t>
   </si>
   <si>
     <t>The sequence models a situation when a cache is absurdly large and heavily underused.</t>
@@ -1520,9 +1655,6 @@
     <t>Apple LLVM-Clang 8.0.0 (800.0.42.1)</t>
   </si>
   <si>
-    <t>2 test sequences of mixed put(key,value)/get(key) calls are used. Each sequence consists of uniformly distributed integer keys and corresponding to them sequence of random boolean flags with bernoulli distribution whether put or get method are to be called for a given key value. Here the sequence characteristics are described and two other sheets contain performance data using the sequences</t>
-  </si>
-  <si>
     <t>Core i7-3770 @ 3.4Ghz, Win 10 Pro</t>
   </si>
   <si>
@@ -1546,12 +1678,45 @@
   <si>
     <t>GNU G++-6.2.0</t>
   </si>
+  <si>
+    <t>Core i5-6500 @ 3.2Ghz, Win 10 Home</t>
+  </si>
+  <si>
+    <t>GNU C++ (5.3)</t>
+  </si>
+  <si>
+    <t>x86?</t>
+  </si>
+  <si>
+    <t>1st Sequence on VC++2015</t>
+  </si>
+  <si>
+    <t>1st Sequence on Mac OS/clang++</t>
+  </si>
+  <si>
+    <t>2nd sequence on VC++2015</t>
+  </si>
+  <si>
+    <t>2nd sequence on Mac OS/clang++</t>
+  </si>
+  <si>
+    <t>The sequence models a situation when a cache is heavily overused. The cache size is too small.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 test sequences of mixed put(key,value)/get(key) calls are used. Each sequence consists of uniformly distributed integer keys and corresponding to them sequence of random boolean flags with bernoulli distribution whether put or get method are to be called for a given key value. Here the sequence characteristics are described and two other sheets contain performance data using the sequences. </t>
+  </si>
+  <si>
+    <t>for &lt;string,string&gt;</t>
+  </si>
+  <si>
+    <t>for &lt;size_t,size_t&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,6 +1755,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1633,7 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1665,10 +1843,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1676,8 +1868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -2004,226 +2194,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="19"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14">
+        <v>16000000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="D8" s="14">
+        <v>16000000</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="F8" s="14">
+        <v>16000000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="H8" s="14">
+        <v>16000000</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>605184</v>
+      </c>
+      <c r="C9">
+        <v>60310</v>
+      </c>
+      <c r="D9">
+        <v>605628</v>
+      </c>
+      <c r="E9">
+        <v>60466</v>
+      </c>
+      <c r="F9">
+        <v>10716368</v>
+      </c>
+      <c r="G9">
+        <v>1069247</v>
+      </c>
+      <c r="H9">
+        <v>10716367</v>
+      </c>
+      <c r="I9">
+        <v>1068798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13">
-        <v>16000000</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>605184</v>
-      </c>
-      <c r="C8">
-        <v>605628</v>
-      </c>
-      <c r="D8">
-        <v>10716368</v>
-      </c>
-      <c r="E8">
-        <v>10716367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B10">
+        <v>10111938</v>
+      </c>
+      <c r="C10">
+        <v>1011302</v>
+      </c>
+      <c r="D10">
+        <v>10110010</v>
+      </c>
+      <c r="E10">
+        <v>1010094</v>
+      </c>
+      <c r="F10">
+        <v>3398</v>
+      </c>
+      <c r="G10">
+        <v>3398</v>
+      </c>
+      <c r="H10">
+        <v>3144</v>
+      </c>
+      <c r="I10">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>10111938</v>
-      </c>
-      <c r="C9">
-        <v>10110010</v>
-      </c>
-      <c r="D9">
-        <v>3398</v>
-      </c>
-      <c r="E9">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B11">
+        <v>4984924</v>
+      </c>
+      <c r="C11">
+        <v>498632</v>
+      </c>
+      <c r="D11">
+        <v>4985256</v>
+      </c>
+      <c r="E11">
+        <v>499405</v>
+      </c>
+      <c r="F11">
+        <v>1601</v>
+      </c>
+      <c r="G11">
+        <v>1601</v>
+      </c>
+      <c r="H11">
+        <v>1601</v>
+      </c>
+      <c r="I11">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>4984924</v>
-      </c>
-      <c r="C10">
-        <v>4985256</v>
-      </c>
-      <c r="D10">
-        <v>1601</v>
-      </c>
-      <c r="E10">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+      <c r="B12">
         <v>5282878</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <v>528388</v>
+      </c>
+      <c r="D12">
         <v>5284362</v>
       </c>
-      <c r="D11">
+      <c r="E12">
+        <v>529440</v>
+      </c>
+      <c r="F12">
         <v>5280234</v>
       </c>
-      <c r="E11">
+      <c r="G12">
+        <v>527355</v>
+      </c>
+      <c r="H12">
         <v>5280489</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="I12">
+        <v>528058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
         <v>2048</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <v>65536</v>
       </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2234,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,133 +2604,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="11"/>
       <c r="AZ1" s="11"/>
-      <c r="BA1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
+      <c r="BA1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
       <c r="BI1" s="11"/>
       <c r="BJ1" s="11"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
       <c r="AX2" s="11"/>
       <c r="AY2" s="11"/>
       <c r="AZ2" s="11"/>
@@ -2416,139 +2744,139 @@
       <c r="BH2" s="11"/>
       <c r="BI2" s="11"/>
       <c r="BJ2" s="11"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
       <c r="AX3" s="11"/>
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
-      <c r="BA3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
+      <c r="BA3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
       <c r="BI3" s="11"/>
       <c r="BJ3" s="11"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
       <c r="AX4" s="11"/>
       <c r="AY4" s="11"/>
       <c r="AZ4" s="11"/>
@@ -2562,287 +2890,287 @@
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
       <c r="BJ4" s="11"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
       <c r="AX5" s="11"/>
       <c r="AY5" s="11"/>
       <c r="AZ5" s="11"/>
-      <c r="BA5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH5" s="13"/>
+      <c r="BA5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="18"/>
       <c r="BI5" s="11"/>
       <c r="BJ5" s="11"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AQ6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AS6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AV6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AW6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
       <c r="AZ6" s="11"/>
       <c r="BA6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BB6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BC6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BD6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BE6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BF6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BG6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BH6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BI6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BJ6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>2384.34</v>
@@ -3006,7 +3334,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>1084.46</v>
@@ -3170,7 +3498,7 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>2178.67</v>
@@ -3334,7 +3662,7 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1040.79</v>
@@ -3498,7 +3826,7 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>2755.06</v>
@@ -3662,7 +3990,7 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>1503.75</v>
@@ -3826,7 +4154,7 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>2576.16</v>
@@ -3990,7 +4318,7 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>1422.67</v>
@@ -4154,7 +4482,7 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <v>1656.66</v>
@@ -4318,7 +4646,7 @@
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>533.86099999999999</v>
@@ -4482,7 +4810,7 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6">
         <v>2920.29</v>
@@ -4646,7 +4974,7 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>1136.05</v>
@@ -4810,7 +5138,7 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
         <v>2734.43</v>
@@ -4974,7 +5302,7 @@
     </row>
     <row r="20" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>1050.1400000000001</v>
@@ -5138,7 +5466,7 @@
     </row>
     <row r="21" spans="1:64" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>4107.1400000000003</v>
@@ -5230,7 +5558,7 @@
       <c r="AE21" s="6">
         <v>1.897</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AF21" s="15">
         <v>3523.58</v>
       </c>
       <c r="AG21" s="6">
@@ -5242,7 +5570,7 @@
       <c r="AI21" s="6">
         <v>1.4930000000000001</v>
       </c>
-      <c r="AJ21" s="17">
+      <c r="AJ21" s="15">
         <v>3489.49</v>
       </c>
       <c r="AK21" s="6">
@@ -5266,7 +5594,7 @@
       <c r="AQ21" s="6">
         <v>0.77590000000000003</v>
       </c>
-      <c r="AR21" s="17">
+      <c r="AR21" s="15">
         <v>3634.93</v>
       </c>
       <c r="AS21" s="6">
@@ -5278,7 +5606,7 @@
       <c r="AU21" s="6">
         <v>1.0980000000000001</v>
       </c>
-      <c r="AV21" s="17">
+      <c r="AV21" s="15">
         <v>3569.07</v>
       </c>
       <c r="AW21" s="6">
@@ -5302,7 +5630,7 @@
     </row>
     <row r="22" spans="1:64" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>4172.79</v>
@@ -5394,7 +5722,7 @@
       <c r="AE22" s="6">
         <v>2.5489999999999999</v>
       </c>
-      <c r="AF22" s="17">
+      <c r="AF22" s="15">
         <v>3604.38</v>
       </c>
       <c r="AG22" s="6">
@@ -5406,7 +5734,7 @@
       <c r="AI22" s="6">
         <v>1.974</v>
       </c>
-      <c r="AJ22" s="17">
+      <c r="AJ22" s="15">
         <v>3594.84</v>
       </c>
       <c r="AK22" s="6">
@@ -5430,7 +5758,7 @@
       <c r="AQ22" s="6">
         <v>1.87</v>
       </c>
-      <c r="AR22" s="17">
+      <c r="AR22" s="15">
         <v>3719.35</v>
       </c>
       <c r="AS22" s="6">
@@ -5442,7 +5770,7 @@
       <c r="AU22" s="6">
         <v>10.71</v>
       </c>
-      <c r="AV22" s="17">
+      <c r="AV22" s="15">
         <v>3697.57</v>
       </c>
       <c r="AW22" s="6">
@@ -5467,14 +5795,6 @@
     <row r="23" spans="1:64" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="Z1:AW1"/>
-    <mergeCell ref="Z3:AK3"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AT5:AW5"/>
     <mergeCell ref="BA5:BB5"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
@@ -5485,6 +5805,12 @@
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AT5:AW5"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="BE3:BH3"/>
@@ -5493,6 +5819,7 @@
     <mergeCell ref="R4:Y4"/>
     <mergeCell ref="BK4:BN4"/>
     <mergeCell ref="B4:I4"/>
+    <mergeCell ref="Z3:AK3"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="BA1:BD1"/>
     <mergeCell ref="BE1:BH1"/>
@@ -5500,6 +5827,7 @@
     <mergeCell ref="B2:Y2"/>
     <mergeCell ref="BK2:BN2"/>
     <mergeCell ref="Z2:AW2"/>
+    <mergeCell ref="Z1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5511,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AW6"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5553,133 +5881,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="11"/>
       <c r="AZ1" s="11"/>
-      <c r="BA1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
+      <c r="BA1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
       <c r="BI1" s="11"/>
       <c r="BJ1" s="11"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
       <c r="AX2" s="11"/>
       <c r="AY2" s="11"/>
       <c r="AZ2" s="11"/>
@@ -5693,141 +6021,141 @@
       <c r="BH2" s="11"/>
       <c r="BI2" s="11"/>
       <c r="BJ2" s="11"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
       <c r="AX3" s="11"/>
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
-      <c r="BA3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
+      <c r="BA3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
       <c r="BI3" s="11"/>
       <c r="BJ3" s="11"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
       <c r="AX4" s="11"/>
       <c r="AY4" s="11"/>
       <c r="AZ4" s="11"/>
@@ -5841,287 +6169,287 @@
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
       <c r="BJ4" s="11"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
       <c r="AX5" s="11"/>
       <c r="AY5" s="11"/>
       <c r="AZ5" s="11"/>
-      <c r="BA5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH5" s="13"/>
+      <c r="BA5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="18"/>
       <c r="BI5" s="11"/>
       <c r="BJ5" s="11"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AQ6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AS6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AT6" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AV6" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AW6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
       <c r="AZ6" s="11"/>
       <c r="BA6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BB6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BC6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BD6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BE6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BF6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BG6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BH6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BI6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BJ6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>1497.39</v>
@@ -6285,7 +6613,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>612.07799999999997</v>
@@ -6449,7 +6777,7 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>1500.65</v>
@@ -6613,7 +6941,7 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>621.53300000000002</v>
@@ -6777,7 +7105,7 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>1572.59</v>
@@ -6941,7 +7269,7 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>642.57000000000005</v>
@@ -7105,7 +7433,7 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>1432.27</v>
@@ -7269,7 +7597,7 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>598.75300000000004</v>
@@ -7433,7 +7761,7 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <v>1203.42</v>
@@ -7597,7 +7925,7 @@
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>504.22500000000002</v>
@@ -7761,7 +8089,7 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6">
         <v>1553.19</v>
@@ -7925,7 +8253,7 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>500.87400000000002</v>
@@ -8089,7 +8417,7 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
         <v>1585.43</v>
@@ -8253,7 +8581,7 @@
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>497.50099999999998</v>
@@ -8417,7 +8745,7 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>453.68299999999999</v>
@@ -8581,7 +8909,7 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>469.53699999999998</v>
@@ -8745,11 +9073,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="AL3:AW3"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
     <mergeCell ref="AP5:AS5"/>
     <mergeCell ref="AT5:AW5"/>
     <mergeCell ref="BA5:BB5"/>
@@ -8763,22 +9086,27 @@
     <mergeCell ref="V5:Y5"/>
     <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="Z3:AK3"/>
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="BE3:BH3"/>
     <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="AL3:AW3"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="Z2:AW2"/>
+    <mergeCell ref="BK2:BN2"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="Z1:AW1"/>
     <mergeCell ref="BA1:BD1"/>
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="Z2:AW2"/>
-    <mergeCell ref="BK2:BN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8810,56 +9138,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
+      <c r="X1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -8870,66 +9198,66 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="X2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
-      <c r="X3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
+      <c r="X3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="F4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -8940,137 +9268,137 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
-      <c r="X4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
+      <c r="X4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="18"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>2325.48</v>
@@ -9127,7 +9455,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>1057.78</v>
@@ -9184,7 +9512,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>2203.9299999999998</v>
@@ -9241,7 +9569,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>1033.07</v>
@@ -9298,7 +9626,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>2672.72</v>
@@ -9355,7 +9683,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>1436.33</v>
@@ -9412,7 +9740,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>2617.0100000000002</v>
@@ -9469,7 +9797,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>1438.28</v>
@@ -9526,7 +9854,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <v>1657.63</v>
@@ -9583,7 +9911,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>529.57100000000003</v>
@@ -9640,7 +9968,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6">
         <v>2953.78</v>
@@ -9697,7 +10025,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>1106.19</v>
@@ -9754,7 +10082,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
         <v>2785.26</v>
@@ -9811,7 +10139,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>1038.4100000000001</v>
@@ -9868,7 +10196,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>4084.39</v>
@@ -9925,7 +10253,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>4107.3599999999997</v>
@@ -10034,211 +10362,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="R2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="F4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="R4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>1329.2</v>
@@ -10287,7 +10615,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>475.17899999999997</v>
@@ -10334,7 +10662,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>1320.92</v>
@@ -10381,7 +10709,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <v>474.34899999999999</v>
@@ -10428,7 +10756,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>1392.7</v>
@@ -10475,7 +10803,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>539.25300000000004</v>
@@ -10522,7 +10850,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>1377.73</v>
@@ -10569,7 +10897,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
         <v>581.87599999999998</v>
@@ -10616,7 +10944,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <v>1151</v>
@@ -10663,7 +10991,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>437.83100000000002</v>
@@ -10710,7 +11038,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6">
         <v>1443.8</v>
@@ -10757,7 +11085,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>471.149</v>
@@ -10804,7 +11132,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
         <v>1410.19</v>
@@ -10851,7 +11179,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>467.84300000000002</v>
@@ -10898,7 +11226,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>412.714</v>
@@ -10945,7 +11273,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>406.96</v>
@@ -11018,11 +11346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11033,132 +11361,192 @@
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
+    <col min="20" max="20" width="22.109375" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="H3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>2426.6999999999998</v>
@@ -11190,16 +11578,40 @@
       <c r="K6">
         <v>39.950000000000003</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
+        <v>2092.44</v>
+      </c>
+      <c r="M6">
+        <v>6.516</v>
+      </c>
+      <c r="N6">
+        <v>2102.86</v>
+      </c>
+      <c r="O6">
+        <v>105.6</v>
+      </c>
+      <c r="P6">
+        <v>1874.16</v>
+      </c>
+      <c r="Q6">
+        <v>40.22</v>
+      </c>
+      <c r="R6">
+        <v>1888.81</v>
+      </c>
+      <c r="S6">
+        <v>49.72</v>
+      </c>
+      <c r="T6" s="6">
         <v>1910.96</v>
       </c>
-      <c r="M6" s="6">
+      <c r="U6" s="6">
         <v>13.74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>1013.72</v>
@@ -11231,16 +11643,40 @@
       <c r="K7">
         <v>17.28</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
+        <v>861.59799999999996</v>
+      </c>
+      <c r="M7">
+        <v>25.98</v>
+      </c>
+      <c r="N7">
+        <v>831.52599999999995</v>
+      </c>
+      <c r="O7">
+        <v>24.91</v>
+      </c>
+      <c r="P7">
+        <v>770.13099999999997</v>
+      </c>
+      <c r="Q7">
+        <v>14.54</v>
+      </c>
+      <c r="R7">
+        <v>771.39400000000001</v>
+      </c>
+      <c r="S7">
+        <v>13.17</v>
+      </c>
+      <c r="T7" s="6">
         <v>592.83299999999997</v>
       </c>
-      <c r="M7" s="6">
+      <c r="U7" s="6">
         <v>23.42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>2188.7600000000002</v>
@@ -11272,16 +11708,40 @@
       <c r="K8">
         <v>7.0250000000000004</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
+        <v>2006.71</v>
+      </c>
+      <c r="M8">
+        <v>6.7709999999999999</v>
+      </c>
+      <c r="N8">
+        <v>1988.21</v>
+      </c>
+      <c r="O8">
+        <v>21.7</v>
+      </c>
+      <c r="P8">
+        <v>1507.58</v>
+      </c>
+      <c r="Q8">
+        <v>7.359</v>
+      </c>
+      <c r="R8">
+        <v>1521.08</v>
+      </c>
+      <c r="S8">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="T8" s="6">
         <v>1591.3</v>
       </c>
-      <c r="M8" s="6">
+      <c r="U8" s="6">
         <v>8.0630000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <v>1003.21</v>
@@ -11313,16 +11773,40 @@
       <c r="K9">
         <v>16.399999999999999</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
+        <v>813.88199999999995</v>
+      </c>
+      <c r="M9">
+        <v>12.39</v>
+      </c>
+      <c r="N9">
+        <v>817.59400000000005</v>
+      </c>
+      <c r="O9">
+        <v>3.746</v>
+      </c>
+      <c r="P9">
+        <v>642.66499999999996</v>
+      </c>
+      <c r="Q9">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="R9">
+        <v>654</v>
+      </c>
+      <c r="S9">
+        <v>10.99</v>
+      </c>
+      <c r="T9" s="6">
         <v>483.59899999999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="U9" s="6">
         <v>1.466</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
         <v>2731.35</v>
@@ -11354,16 +11838,28 @@
       <c r="K10">
         <v>20.55</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
+        <v>2546.29</v>
+      </c>
+      <c r="M10">
+        <v>118.2</v>
+      </c>
+      <c r="N10">
+        <v>2356.1799999999998</v>
+      </c>
+      <c r="O10">
+        <v>25.32</v>
+      </c>
+      <c r="T10" s="6">
         <v>2380.0500000000002</v>
       </c>
-      <c r="M10" s="6">
+      <c r="U10" s="6">
         <v>7.274</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>1498.21</v>
@@ -11395,16 +11891,28 @@
       <c r="K11">
         <v>10.220000000000001</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
+        <v>1103.06</v>
+      </c>
+      <c r="M11">
+        <v>2.581</v>
+      </c>
+      <c r="N11">
+        <v>1020.66</v>
+      </c>
+      <c r="O11">
+        <v>7.5030000000000001</v>
+      </c>
+      <c r="T11" s="6">
         <v>1028.72</v>
       </c>
-      <c r="M11" s="6">
+      <c r="U11" s="6">
         <v>5.6639999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>2641.73</v>
@@ -11436,16 +11944,28 @@
       <c r="K12">
         <v>25.03</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
+        <v>2451.69</v>
+      </c>
+      <c r="M12">
+        <v>5.944</v>
+      </c>
+      <c r="N12">
+        <v>2283.42</v>
+      </c>
+      <c r="O12">
+        <v>14.48</v>
+      </c>
+      <c r="T12" s="6">
         <v>1706.93</v>
       </c>
-      <c r="M12" s="6">
+      <c r="U12" s="6">
         <v>0.30940000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>1389.58</v>
@@ -11477,16 +11997,28 @@
       <c r="K13">
         <v>6.0890000000000004</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
+        <v>1151.96</v>
+      </c>
+      <c r="M13">
+        <v>40.69</v>
+      </c>
+      <c r="N13">
+        <v>1070.04</v>
+      </c>
+      <c r="O13">
+        <v>5.1929999999999996</v>
+      </c>
+      <c r="T13" s="6">
         <v>627.14800000000002</v>
       </c>
-      <c r="M13" s="6">
+      <c r="U13" s="6">
         <v>0.31730000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6">
         <v>2001.48</v>
@@ -11518,16 +12050,40 @@
       <c r="K14">
         <v>18.25</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
+        <v>1851.11</v>
+      </c>
+      <c r="M14">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="N14">
+        <v>1742.21</v>
+      </c>
+      <c r="O14">
+        <v>7.5469999999999997</v>
+      </c>
+      <c r="P14">
+        <v>1224.8800000000001</v>
+      </c>
+      <c r="Q14">
+        <v>6.8019999999999996</v>
+      </c>
+      <c r="R14">
+        <v>1252.3800000000001</v>
+      </c>
+      <c r="S14">
+        <v>27.59</v>
+      </c>
+      <c r="T14" s="6">
         <v>1744.56</v>
       </c>
-      <c r="M14" s="6">
+      <c r="U14" s="6">
         <v>1.548</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>549.09</v>
@@ -11559,16 +12115,40 @@
       <c r="K15">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
+        <v>460.69</v>
+      </c>
+      <c r="M15">
+        <v>2.887</v>
+      </c>
+      <c r="N15">
+        <v>344.93200000000002</v>
+      </c>
+      <c r="O15">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="P15">
+        <v>259.93400000000003</v>
+      </c>
+      <c r="Q15">
+        <v>8.1969999999999992</v>
+      </c>
+      <c r="R15">
+        <v>257.94499999999999</v>
+      </c>
+      <c r="S15">
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="T15" s="6">
         <v>231.083</v>
       </c>
-      <c r="M15" s="6">
+      <c r="U15" s="6">
         <v>8.7520000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6">
         <v>3020.76</v>
@@ -11600,16 +12180,40 @@
       <c r="K16">
         <v>82.46</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
+        <v>2660.42</v>
+      </c>
+      <c r="M16">
+        <v>68.66</v>
+      </c>
+      <c r="N16">
+        <v>2579.4699999999998</v>
+      </c>
+      <c r="O16">
+        <v>120</v>
+      </c>
+      <c r="P16">
+        <v>2378.09</v>
+      </c>
+      <c r="Q16">
+        <v>104.3</v>
+      </c>
+      <c r="R16">
+        <v>2429.91</v>
+      </c>
+      <c r="S16">
+        <v>88.95</v>
+      </c>
+      <c r="T16" s="6">
         <v>2282.29</v>
       </c>
-      <c r="M16" s="6">
+      <c r="U16" s="6">
         <v>8.0190000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6">
         <v>1193.1400000000001</v>
@@ -11641,16 +12245,40 @@
       <c r="K17">
         <v>83.71</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
+        <v>889.77800000000002</v>
+      </c>
+      <c r="M17">
+        <v>11.43</v>
+      </c>
+      <c r="N17">
+        <v>856.85199999999998</v>
+      </c>
+      <c r="O17">
+        <v>53.46</v>
+      </c>
+      <c r="P17">
+        <v>729.60400000000004</v>
+      </c>
+      <c r="Q17">
+        <v>10.39</v>
+      </c>
+      <c r="R17">
+        <v>733.92100000000005</v>
+      </c>
+      <c r="S17">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="T17" s="6">
         <v>623.54200000000003</v>
       </c>
-      <c r="M17" s="6">
+      <c r="U17" s="6">
         <v>1.8149999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6">
         <v>2781.32</v>
@@ -11682,16 +12310,40 @@
       <c r="K18">
         <v>14.42</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
+        <v>2463</v>
+      </c>
+      <c r="M18">
+        <v>22.42</v>
+      </c>
+      <c r="N18">
+        <v>2386.84</v>
+      </c>
+      <c r="O18">
+        <v>22.73</v>
+      </c>
+      <c r="P18">
+        <v>2006.99</v>
+      </c>
+      <c r="Q18">
+        <v>9.19</v>
+      </c>
+      <c r="R18">
+        <v>2063.17</v>
+      </c>
+      <c r="S18">
+        <v>49.78</v>
+      </c>
+      <c r="T18" s="6">
         <v>2093.98</v>
       </c>
-      <c r="M18" s="6">
+      <c r="U18" s="6">
         <v>0.86739999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
         <v>1119.42</v>
@@ -11723,16 +12375,40 @@
       <c r="K19">
         <v>11.53</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
+        <v>921.46199999999999</v>
+      </c>
+      <c r="M19">
+        <v>5.3230000000000004</v>
+      </c>
+      <c r="N19">
+        <v>857.24699999999996</v>
+      </c>
+      <c r="O19">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="P19">
+        <v>426.435</v>
+      </c>
+      <c r="Q19">
+        <v>5.0469999999999997</v>
+      </c>
+      <c r="R19">
+        <v>435.59399999999999</v>
+      </c>
+      <c r="S19">
+        <v>9.3460000000000001</v>
+      </c>
+      <c r="T19" s="6">
         <v>534.66800000000001</v>
       </c>
-      <c r="M19" s="6">
+      <c r="U19" s="6">
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6">
         <v>4254.3599999999997</v>
@@ -11764,16 +12440,40 @@
       <c r="K20">
         <v>10.42</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
+        <v>3854.69</v>
+      </c>
+      <c r="M20">
+        <v>18.11</v>
+      </c>
+      <c r="N20">
+        <v>3577.52</v>
+      </c>
+      <c r="O20">
+        <v>23.58</v>
+      </c>
+      <c r="P20">
+        <v>3568.14</v>
+      </c>
+      <c r="Q20">
+        <v>14.69</v>
+      </c>
+      <c r="R20">
+        <v>3603.59</v>
+      </c>
+      <c r="S20">
+        <v>29.69</v>
+      </c>
+      <c r="T20" s="6">
         <v>3460.39</v>
       </c>
-      <c r="M20" s="6">
+      <c r="U20" s="6">
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6">
         <v>4211.2700000000004</v>
@@ -11805,39 +12505,70 @@
       <c r="K21">
         <v>32.92</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21">
+        <v>3839.05</v>
+      </c>
+      <c r="M21">
+        <v>17.45</v>
+      </c>
+      <c r="N21">
+        <v>3660.44</v>
+      </c>
+      <c r="O21">
+        <v>28.98</v>
+      </c>
+      <c r="P21">
+        <v>3406.39</v>
+      </c>
+      <c r="Q21">
+        <v>10.64</v>
+      </c>
+      <c r="R21">
+        <v>3444.19</v>
+      </c>
+      <c r="S21">
+        <v>16.97</v>
+      </c>
+      <c r="T21" s="6">
         <v>3550.59</v>
       </c>
-      <c r="M21" s="6">
+      <c r="U21" s="6">
         <v>1.028</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
+  <mergeCells count="18">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L21"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11851,131 +12582,193 @@
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="H3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>1885.45</v>
@@ -12007,16 +12800,40 @@
       <c r="K6" s="6">
         <v>20.440000000000001</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
+        <v>1682.52</v>
+      </c>
+      <c r="M6">
+        <v>12.73</v>
+      </c>
+      <c r="N6">
+        <v>1651.8</v>
+      </c>
+      <c r="O6">
+        <v>16.13</v>
+      </c>
+      <c r="P6">
+        <v>1150.8599999999999</v>
+      </c>
+      <c r="Q6">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="R6">
+        <v>1184.76</v>
+      </c>
+      <c r="S6">
+        <v>19.04</v>
+      </c>
+      <c r="T6" s="6">
         <v>1528.61</v>
       </c>
-      <c r="M6" s="6">
+      <c r="U6" s="6">
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>900.85799999999995</v>
@@ -12048,16 +12865,40 @@
       <c r="K7" s="6">
         <v>17.38</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
+        <v>673.80100000000004</v>
+      </c>
+      <c r="M7">
+        <v>11.24</v>
+      </c>
+      <c r="N7">
+        <v>699.22400000000005</v>
+      </c>
+      <c r="O7">
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="P7">
+        <v>562.471</v>
+      </c>
+      <c r="Q7">
+        <v>8.8580000000000005</v>
+      </c>
+      <c r="R7">
+        <v>591.4</v>
+      </c>
+      <c r="S7">
+        <v>23.08</v>
+      </c>
+      <c r="T7" s="6">
         <v>194.72300000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="U7" s="6">
         <v>2.415</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>1881.38</v>
@@ -12089,16 +12930,40 @@
       <c r="K8" s="6">
         <v>10.51</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
+        <v>1682.81</v>
+      </c>
+      <c r="M8">
+        <v>4.0359999999999996</v>
+      </c>
+      <c r="N8">
+        <v>1676.99</v>
+      </c>
+      <c r="O8">
+        <v>4.1769999999999996</v>
+      </c>
+      <c r="P8">
+        <v>1183.95</v>
+      </c>
+      <c r="Q8">
+        <v>10.26</v>
+      </c>
+      <c r="R8">
+        <v>1178.3499999999999</v>
+      </c>
+      <c r="S8">
+        <v>8.6590000000000007</v>
+      </c>
+      <c r="T8" s="6">
         <v>1245.8900000000001</v>
       </c>
-      <c r="M8" s="6">
+      <c r="U8" s="6">
         <v>1.4359999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <v>929.26700000000005</v>
@@ -12130,16 +12995,40 @@
       <c r="K9" s="6">
         <v>6.6289999999999996</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
+        <v>737.41700000000003</v>
+      </c>
+      <c r="M9">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="N9">
+        <v>741.90700000000004</v>
+      </c>
+      <c r="O9">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="P9">
+        <v>495.95699999999999</v>
+      </c>
+      <c r="Q9">
+        <v>14.31</v>
+      </c>
+      <c r="R9">
+        <v>489.10700000000003</v>
+      </c>
+      <c r="S9">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="T9" s="6">
         <v>207.37</v>
       </c>
-      <c r="M9" s="6">
+      <c r="U9" s="6">
         <v>1.218</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
         <v>1435.47</v>
@@ -12171,16 +13060,28 @@
       <c r="K10" s="6">
         <v>7.9539999999999997</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
+        <v>1368.86</v>
+      </c>
+      <c r="M10">
+        <v>30.31</v>
+      </c>
+      <c r="N10">
+        <v>1405.68</v>
+      </c>
+      <c r="O10">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="T10" s="6">
         <v>1306.72</v>
       </c>
-      <c r="M10" s="6">
+      <c r="U10" s="6">
         <v>2.476</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>474.86500000000001</v>
@@ -12212,16 +13113,28 @@
       <c r="K11" s="6">
         <v>14.11</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
+        <v>320.91300000000001</v>
+      </c>
+      <c r="M11">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="N11">
+        <v>378.36399999999998</v>
+      </c>
+      <c r="O11">
+        <v>5.1630000000000003</v>
+      </c>
+      <c r="T11" s="6">
         <v>165.691</v>
       </c>
-      <c r="M11" s="6">
+      <c r="U11" s="6">
         <v>0.83440000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>1430.96</v>
@@ -12253,16 +13166,28 @@
       <c r="K12" s="6">
         <v>14.97</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
+        <v>1338.35</v>
+      </c>
+      <c r="M12">
+        <v>9.7569999999999997</v>
+      </c>
+      <c r="N12">
+        <v>1383.94</v>
+      </c>
+      <c r="O12">
+        <v>3.976</v>
+      </c>
+      <c r="T12" s="6">
         <v>1243.83</v>
       </c>
-      <c r="M12" s="6">
+      <c r="U12" s="6">
         <v>1.4610000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>467.03500000000003</v>
@@ -12294,16 +13219,28 @@
       <c r="K13" s="6">
         <v>6.048</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
+        <v>305.16800000000001</v>
+      </c>
+      <c r="M13">
+        <v>4.4539999999999997</v>
+      </c>
+      <c r="N13">
+        <v>399.06</v>
+      </c>
+      <c r="O13">
+        <v>10.38</v>
+      </c>
+      <c r="T13" s="6">
         <v>188.07499999999999</v>
       </c>
-      <c r="M13" s="6">
+      <c r="U13" s="6">
         <v>0.92649999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6">
         <v>1214.5899999999999</v>
@@ -12335,16 +13272,40 @@
       <c r="K14" s="6">
         <v>20.6</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
+        <v>1114.33</v>
+      </c>
+      <c r="M14">
+        <v>25.95</v>
+      </c>
+      <c r="N14">
+        <v>1091.25</v>
+      </c>
+      <c r="O14">
+        <v>13.68</v>
+      </c>
+      <c r="P14">
+        <v>597.62800000000004</v>
+      </c>
+      <c r="Q14">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="R14">
+        <v>606.63300000000004</v>
+      </c>
+      <c r="S14">
+        <v>15.33</v>
+      </c>
+      <c r="T14" s="6">
         <v>1068.6400000000001</v>
       </c>
-      <c r="M14" s="6">
+      <c r="U14" s="6">
         <v>0.27379999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>445.65699999999998</v>
@@ -12376,16 +13337,40 @@
       <c r="K15" s="6">
         <v>9.8160000000000007</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
+        <v>313.54500000000002</v>
+      </c>
+      <c r="M15">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="N15">
+        <v>188.934</v>
+      </c>
+      <c r="O15">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="P15">
+        <v>137.767</v>
+      </c>
+      <c r="Q15">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="R15">
+        <v>144.36600000000001</v>
+      </c>
+      <c r="S15">
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="T15" s="6">
         <v>132.071</v>
       </c>
-      <c r="M15" s="6">
+      <c r="U15" s="6">
         <v>0.45529999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6">
         <v>1487.34</v>
@@ -12417,16 +13402,40 @@
       <c r="K16" s="6">
         <v>3.359</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
+        <v>1364.89</v>
+      </c>
+      <c r="M16">
+        <v>8.1370000000000005</v>
+      </c>
+      <c r="N16">
+        <v>1325.04</v>
+      </c>
+      <c r="O16">
+        <v>11.8</v>
+      </c>
+      <c r="P16">
+        <v>1179.8399999999999</v>
+      </c>
+      <c r="Q16">
+        <v>24.58</v>
+      </c>
+      <c r="R16">
+        <v>1181.4100000000001</v>
+      </c>
+      <c r="S16">
+        <v>10.6</v>
+      </c>
+      <c r="T16" s="6">
         <v>1271.75</v>
       </c>
-      <c r="M16" s="6">
+      <c r="U16" s="6">
         <v>15.34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6">
         <v>530.40899999999999</v>
@@ -12458,16 +13467,40 @@
       <c r="K17" s="6">
         <v>5.3719999999999999</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
+        <v>354.471</v>
+      </c>
+      <c r="M17">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="N17">
+        <v>306.46300000000002</v>
+      </c>
+      <c r="O17">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="P17">
+        <v>151.184</v>
+      </c>
+      <c r="Q17">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="R17">
+        <v>155.499</v>
+      </c>
+      <c r="S17">
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="T17" s="6">
         <v>170.661</v>
       </c>
-      <c r="M17" s="6">
+      <c r="U17" s="6">
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6">
         <v>1453.54</v>
@@ -12499,16 +13532,40 @@
       <c r="K18" s="6">
         <v>15.33</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
+        <v>1321.11</v>
+      </c>
+      <c r="M18">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="N18">
+        <v>1283.1600000000001</v>
+      </c>
+      <c r="O18">
+        <v>9.1329999999999991</v>
+      </c>
+      <c r="P18">
+        <v>1188.98</v>
+      </c>
+      <c r="Q18">
+        <v>14.65</v>
+      </c>
+      <c r="R18">
+        <v>1199.26</v>
+      </c>
+      <c r="S18">
+        <v>17.43</v>
+      </c>
+      <c r="T18" s="6">
         <v>1280.04</v>
       </c>
-      <c r="M18" s="6">
+      <c r="U18" s="6">
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
         <v>526.96900000000005</v>
@@ -12540,16 +13597,40 @@
       <c r="K19" s="6">
         <v>3.0249999999999999</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
+        <v>347.02100000000002</v>
+      </c>
+      <c r="M19">
+        <v>4.8730000000000002</v>
+      </c>
+      <c r="N19">
+        <v>306.30700000000002</v>
+      </c>
+      <c r="O19">
+        <v>1.913</v>
+      </c>
+      <c r="P19">
+        <v>160.256</v>
+      </c>
+      <c r="Q19">
+        <v>6.3170000000000002</v>
+      </c>
+      <c r="R19">
+        <v>154.268</v>
+      </c>
+      <c r="S19">
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="T19" s="6">
         <v>171.66200000000001</v>
       </c>
-      <c r="M19" s="6">
+      <c r="U19" s="6">
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6">
         <v>472.99299999999999</v>
@@ -12581,16 +13662,40 @@
       <c r="K20" s="6">
         <v>27.29</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
+        <v>353.43799999999999</v>
+      </c>
+      <c r="M20">
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="N20">
+        <v>333.76600000000002</v>
+      </c>
+      <c r="O20">
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="P20">
+        <v>169.02199999999999</v>
+      </c>
+      <c r="Q20">
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="R20">
+        <v>169.04300000000001</v>
+      </c>
+      <c r="S20">
+        <v>6.883</v>
+      </c>
+      <c r="T20" s="6">
         <v>251.63</v>
       </c>
-      <c r="M20" s="6">
+      <c r="U20" s="6">
         <v>0.76329999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6">
         <v>416.55700000000002</v>
@@ -12622,30 +13727,62 @@
       <c r="K21" s="6">
         <v>8.3450000000000006</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21">
+        <v>281.30500000000001</v>
+      </c>
+      <c r="M21">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="N21">
+        <v>302.46800000000002</v>
+      </c>
+      <c r="O21">
+        <v>1.7</v>
+      </c>
+      <c r="P21">
+        <v>152.02699999999999</v>
+      </c>
+      <c r="Q21">
+        <v>11.32</v>
+      </c>
+      <c r="R21">
+        <v>153.07</v>
+      </c>
+      <c r="S21">
+        <v>6.21</v>
+      </c>
+      <c r="T21" s="6">
         <v>231.47399999999999</v>
       </c>
-      <c r="M21" s="6">
+      <c r="U21" s="6">
         <v>0.62009999999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H3:K3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12653,9 +13790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:E34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
